--- a/Sourse_data/2_vrp.xlsx
+++ b/Sourse_data/2_vrp.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dess\Desktop\Work2\Sourse_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="11325" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$A:$A,Лист1!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -382,12 +387,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -571,6 +576,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -618,7 +626,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,9 +658,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,6 +693,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -859,17 +869,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
@@ -896,7 +906,7 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="32.25" customHeight="1">
+    <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="34" t="s">
         <v>119</v>
@@ -916,10 +926,10 @@
       <c r="S1" s="34"/>
       <c r="T1" s="34"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
         <v>104</v>
       </c>
@@ -938,7 +948,7 @@
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -947,7 +957,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>88</v>
@@ -1013,7 +1023,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1022,7 +1032,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -1044,7 +1054,7 @@
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1057,7 +1067,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:22" ht="60">
+    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>103</v>
       </c>
@@ -1146,7 +1156,7 @@
         <v>84976724.339999989</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1245,7 @@
         <v>29411946.359999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +1313,7 @@
         <v>865979</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>328814.03999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1449,7 @@
         <v>440543.04</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +1517,7 @@
         <v>943595.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
@@ -1575,7 +1585,7 @@
         <v>197839.8</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>6</v>
       </c>
@@ -1643,7 +1653,7 @@
         <v>465987.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
@@ -1711,7 +1721,7 @@
         <v>180287.2</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
@@ -1779,7 +1789,7 @@
         <v>428441.3</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1847,7 +1857,7 @@
         <v>580504</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1915,7 +1925,7 @@
         <v>4201768.8</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1983,7 +1993,7 @@
         <v>230706.2</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2051,7 +2061,7 @@
         <v>383110.2</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>13</v>
       </c>
@@ -2119,7 +2129,7 @@
         <v>312857.03999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>14</v>
       </c>
@@ -2187,7 +2197,7 @@
         <v>331631.2</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
@@ -2255,7 +2265,7 @@
         <v>441653.6</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>16</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>636133.69999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>17</v>
       </c>
@@ -2391,7 +2401,7 @@
         <v>560577.9</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
@@ -2459,7 +2469,7 @@
         <v>17881516.239999998</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15.75">
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>19</v>
       </c>
@@ -2548,7 +2558,7 @@
         <v>9015190.2599999998</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>20</v>
       </c>
@@ -2616,7 +2626,7 @@
         <v>280012.40000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>21</v>
       </c>
@@ -2684,7 +2694,7 @@
         <v>665735.74</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>22</v>
       </c>
@@ -2752,7 +2762,7 @@
         <v>819247</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>109</v>
       </c>
@@ -2820,7 +2830,7 @@
         <v>305213.59999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="28.5">
+    <row r="34" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>108</v>
       </c>
@@ -2888,7 +2898,7 @@
         <v>514033.4</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>23</v>
       </c>
@@ -2956,7 +2966,7 @@
         <v>582630.40000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3024,7 +3034,7 @@
         <v>460854.9</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>25</v>
       </c>
@@ -3092,7 +3102,7 @@
         <v>1104435.8999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>26</v>
       </c>
@@ -3160,7 +3170,7 @@
         <v>482547.9</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>27</v>
       </c>
@@ -3228,7 +3238,7 @@
         <v>262008</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>28</v>
       </c>
@@ -3296,7 +3306,7 @@
         <v>164228.51999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>29</v>
       </c>
@@ -3364,7 +3374,7 @@
         <v>4193489.5</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15.75">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>30</v>
       </c>
@@ -3453,7 +3463,7 @@
         <v>5848935</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>31</v>
       </c>
@@ -3521,7 +3531,7 @@
         <v>108417.60000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>35</v>
       </c>
@@ -3589,7 +3599,7 @@
         <v>73692.2</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>113</v>
       </c>
@@ -3624,7 +3634,7 @@
         <v>391299</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>39</v>
       </c>
@@ -3692,7 +3702,7 @@
         <v>2344620.7000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>41</v>
       </c>
@@ -3760,7 +3770,7 @@
         <v>553395.69999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>42</v>
       </c>
@@ -3828,7 +3838,7 @@
         <v>852028.6</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>43</v>
       </c>
@@ -3896,7 +3906,7 @@
         <v>1446226.6</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>114</v>
       </c>
@@ -3931,7 +3941,7 @@
         <v>79254.600000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="15.75">
+    <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>101</v>
       </c>
@@ -4020,7 +4030,7 @@
         <v>1941856.9700000002</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>32</v>
       </c>
@@ -4088,7 +4098,7 @@
         <v>625063.44000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>33</v>
       </c>
@@ -4156,7 +4166,7 @@
         <v>55457.1</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>34</v>
       </c>
@@ -4224,7 +4234,7 @@
         <v>145658.23000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>36</v>
       </c>
@@ -4292,7 +4302,7 @@
         <v>77046.3</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>37</v>
       </c>
@@ -4360,7 +4370,7 @@
         <v>130043.4</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>38</v>
       </c>
@@ -4428,7 +4438,7 @@
         <v>193077.1</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>40</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>715511.4</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="15.75">
+    <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>44</v>
       </c>
@@ -4585,7 +4595,7 @@
         <v>12467473.75</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>45</v>
       </c>
@@ -4653,7 +4663,7 @@
         <v>1673695.75</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>46</v>
       </c>
@@ -4721,7 +4731,7 @@
         <v>177728.7</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>47</v>
       </c>
@@ -4789,7 +4799,7 @@
         <v>227287.6</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>48</v>
       </c>
@@ -4857,7 +4867,7 @@
         <v>2469217.4</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>49</v>
       </c>
@@ -4925,7 +4935,7 @@
         <v>631118.30000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>50</v>
       </c>
@@ -4993,7 +5003,7 @@
         <v>297774.09999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>87</v>
       </c>
@@ -5061,7 +5071,7 @@
         <v>1318472.7</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>51</v>
       </c>
@@ -5129,7 +5139,7 @@
         <v>332556.2</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>52</v>
       </c>
@@ -5197,7 +5207,7 @@
         <v>1367544</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>53</v>
       </c>
@@ -5265,7 +5275,7 @@
         <v>1000644</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>54</v>
       </c>
@@ -5333,7 +5343,7 @@
         <v>400516.8</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>55</v>
       </c>
@@ -5401,7 +5411,7 @@
         <v>1510518.7</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>56</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>712545.4</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>57</v>
       </c>
@@ -5537,7 +5547,7 @@
         <v>347854.1</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="15.75">
+    <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>58</v>
       </c>
@@ -5626,7 +5636,7 @@
         <v>12754779.650000002</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="25" t="s">
         <v>59</v>
       </c>
@@ -5694,7 +5704,7 @@
         <v>213032.13</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
         <v>60</v>
       </c>
@@ -5762,7 +5772,7 @@
         <v>2277576.3199999998</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
         <v>61</v>
       </c>
@@ -5830,7 +5840,7 @@
         <v>8790443.4000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="28.5">
+    <row r="78" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>96</v>
       </c>
@@ -5898,7 +5908,7 @@
         <v>4447475.7</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>97</v>
       </c>
@@ -5966,7 +5976,7 @@
         <v>3083544.5</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="42.75">
+    <row r="80" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>110</v>
       </c>
@@ -6034,7 +6044,7 @@
         <v>1259423.2</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="27" t="s">
         <v>62</v>
       </c>
@@ -6102,7 +6112,7 @@
         <v>1473727.8</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="15.75">
+    <row r="82" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
         <v>63</v>
       </c>
@@ -6191,7 +6201,7 @@
         <v>8332425.5499999998</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>64</v>
       </c>
@@ -6259,7 +6269,7 @@
         <v>50566.82</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
         <v>66</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>68774.03</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
         <v>67</v>
       </c>
@@ -6395,7 +6405,7 @@
         <v>235310.9</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="27" t="s">
         <v>68</v>
       </c>
@@ -6463,7 +6473,7 @@
         <v>549972.9</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
         <v>69</v>
       </c>
@@ -6531,7 +6541,7 @@
         <v>2280025.9</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="27" t="s">
         <v>70</v>
       </c>
@@ -6599,7 +6609,7 @@
         <v>1392934.8</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="27" t="s">
         <v>71</v>
       </c>
@@ -6667,7 +6677,7 @@
         <v>1241598.6000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="27" t="s">
         <v>72</v>
       </c>
@@ -6735,7 +6745,7 @@
         <v>1252258.7</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
         <v>73</v>
       </c>
@@ -6803,7 +6813,7 @@
         <v>681619.5</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="27" t="s">
         <v>74</v>
       </c>
@@ -6871,7 +6881,7 @@
         <v>579363.4</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="29" t="s">
         <v>75</v>
       </c>
@@ -6960,7 +6970,7 @@
         <v>5204116.8</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="27" t="s">
         <v>65</v>
       </c>
@@ -7028,7 +7038,7 @@
         <v>226134.7</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
         <v>76</v>
       </c>
@@ -7096,7 +7106,7 @@
         <v>1084556.2</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
         <v>98</v>
       </c>
@@ -7164,7 +7174,7 @@
         <v>326865.7</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="27" t="s">
         <v>99</v>
       </c>
@@ -7232,7 +7242,7 @@
         <v>236483.5</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
         <v>77</v>
       </c>
@@ -7300,7 +7310,7 @@
         <v>834023.4</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="27" t="s">
         <v>78</v>
       </c>
@@ -7368,7 +7378,7 @@
         <v>710639.6</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="27" t="s">
         <v>79</v>
       </c>
@@ -7436,7 +7446,7 @@
         <v>301069.40000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="27" t="s">
         <v>80</v>
       </c>
@@ -7504,7 +7514,7 @@
         <v>170723.4</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="27" t="s">
         <v>81</v>
       </c>
@@ -7572,7 +7582,7 @@
         <v>1179668.7</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="27" t="s">
         <v>82</v>
       </c>
@@ -7640,7 +7650,7 @@
         <v>55808.800000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="27" t="s">
         <v>83</v>
       </c>
@@ -7708,23 +7718,23 @@
         <v>78143.399999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="141.75" customHeight="1">
-      <c r="A106" s="30"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="P106" s="36"/>
-      <c r="Q106" s="37"/>
-      <c r="R106" s="37"/>
-      <c r="S106" s="37"/>
-      <c r="T106" s="37"/>
+    <row r="105" spans="1:22" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="30"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="37"/>
+      <c r="T105" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="P105:T105"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="P3:T3"/>
   </mergeCells>

--- a/Sourse_data/2_vrp.xlsx
+++ b/Sourse_data/2_vrp.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Центральный федеральный округ</t>
   </si>
@@ -282,9 +282,6 @@
     <t>2005г.</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Пермский край</t>
   </si>
   <si>
@@ -348,15 +345,9 @@
     <t>2012г.</t>
   </si>
   <si>
-    <t xml:space="preserve">  Архангельская область без Ненецкого авт.округа</t>
-  </si>
-  <si>
     <t xml:space="preserve">  в т.ч. Ненецкий авт. округ</t>
   </si>
   <si>
-    <t xml:space="preserve">           Тюменская область (без Ханты-Мансийского авт.округа-Югра и Ямало-Ненецкого авт.округа)</t>
-  </si>
-  <si>
     <t>2013г.</t>
   </si>
   <si>
@@ -382,6 +373,12 @@
   </si>
   <si>
     <t>Валовой региональный продукт по субъектам Российской Федерации в 1998-2018гг.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> без Ненецкого авт.округа</t>
+  </si>
+  <si>
+    <t>без Ханты-Мансийского авт.округа-Югра и Ямало-Ненецкого авт.округа)</t>
   </si>
 </sst>
 </file>
@@ -873,15 +870,15 @@
   <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="56.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
@@ -909,7 +906,7 @@
     <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -931,7 +928,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -960,22 +957,22 @@
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>84</v>
@@ -984,43 +981,43 @@
         <v>85</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="Q5" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="V5" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1069,7 +1066,7 @@
     </row>
     <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" ref="B9:V9" si="0">B10+B29+B42+B51+B59+B74+B82+B93</f>
@@ -2764,13 +2761,13 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="B33" s="20">
+        <v>0</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0</v>
       </c>
       <c r="D33" s="17">
         <v>11924</v>
@@ -2830,48 +2827,48 @@
         <v>305213.59999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>86</v>
+        <v>117</v>
+      </c>
+      <c r="B34" s="20">
+        <v>0</v>
+      </c>
+      <c r="C34" s="20">
+        <v>0</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20">
+        <v>0</v>
+      </c>
+      <c r="J34" s="20">
+        <v>0</v>
+      </c>
+      <c r="K34" s="20">
+        <v>0</v>
+      </c>
+      <c r="L34" s="20">
+        <v>0</v>
+      </c>
+      <c r="M34" s="20">
+        <v>0</v>
+      </c>
+      <c r="N34" s="20">
+        <v>0</v>
       </c>
       <c r="O34" s="7">
         <v>273685.5</v>
@@ -3601,23 +3598,56 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="B45" s="20">
+        <v>0</v>
+      </c>
+      <c r="C45" s="20">
+        <v>0</v>
+      </c>
+      <c r="D45" s="20">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0</v>
+      </c>
+      <c r="G45" s="20">
+        <v>0</v>
+      </c>
+      <c r="H45" s="20">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20">
+        <v>0</v>
+      </c>
+      <c r="J45" s="20">
+        <v>0</v>
+      </c>
+      <c r="K45" s="20">
+        <v>0</v>
+      </c>
+      <c r="L45" s="20">
+        <v>0</v>
+      </c>
+      <c r="M45" s="20">
+        <v>0</v>
+      </c>
+      <c r="N45" s="20">
+        <v>0</v>
+      </c>
+      <c r="O45" s="20">
+        <v>0</v>
+      </c>
+      <c r="P45" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="20">
+        <v>0</v>
+      </c>
       <c r="R45" s="7">
         <v>189439.2</v>
       </c>
@@ -3908,23 +3938,56 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="B50" s="20">
+        <v>0</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0</v>
+      </c>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0</v>
+      </c>
+      <c r="F50" s="20">
+        <v>0</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0</v>
+      </c>
+      <c r="H50" s="20">
+        <v>0</v>
+      </c>
+      <c r="I50" s="20">
+        <v>0</v>
+      </c>
+      <c r="J50" s="20">
+        <v>0</v>
+      </c>
+      <c r="K50" s="20">
+        <v>0</v>
+      </c>
+      <c r="L50" s="20">
+        <v>0</v>
+      </c>
+      <c r="M50" s="20">
+        <v>0</v>
+      </c>
+      <c r="N50" s="20">
+        <v>0</v>
+      </c>
+      <c r="O50" s="20">
+        <v>0</v>
+      </c>
+      <c r="P50" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="20">
+        <v>0</v>
+      </c>
       <c r="R50" s="7">
         <v>30148.6</v>
       </c>
@@ -3943,7 +4006,7 @@
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" ref="B51:N51" si="11">SUM(B52:B58)</f>
@@ -4374,26 +4437,26 @@
       <c r="A57" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>86</v>
+      <c r="B57" s="17">
+        <v>0</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0</v>
+      </c>
+      <c r="F57" s="17">
+        <v>0</v>
+      </c>
+      <c r="G57" s="17">
+        <v>0</v>
+      </c>
+      <c r="H57" s="17">
+        <v>0</v>
       </c>
       <c r="I57" s="17">
         <v>22898.9</v>
@@ -5005,7 +5068,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="17">
         <v>52127.6</v>
@@ -5842,13 +5905,13 @@
     </row>
     <row r="78" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="B78" s="26">
+        <v>0</v>
+      </c>
+      <c r="C78" s="26">
+        <v>0</v>
       </c>
       <c r="D78" s="17">
         <v>403822.2</v>
@@ -5910,13 +5973,13 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="B79" s="26">
+        <v>0</v>
+      </c>
+      <c r="C79" s="26">
+        <v>0</v>
       </c>
       <c r="D79" s="17">
         <v>117100.8</v>
@@ -5976,48 +6039,48 @@
         <v>3083544.5</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="J80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="L80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="N80" s="26" t="s">
-        <v>86</v>
+        <v>118</v>
+      </c>
+      <c r="B80" s="26">
+        <v>0</v>
+      </c>
+      <c r="C80" s="26">
+        <v>0</v>
+      </c>
+      <c r="D80" s="26">
+        <v>0</v>
+      </c>
+      <c r="E80" s="26">
+        <v>0</v>
+      </c>
+      <c r="F80" s="26">
+        <v>0</v>
+      </c>
+      <c r="G80" s="26">
+        <v>0</v>
+      </c>
+      <c r="H80" s="26">
+        <v>0</v>
+      </c>
+      <c r="I80" s="26">
+        <v>0</v>
+      </c>
+      <c r="J80" s="26">
+        <v>0</v>
+      </c>
+      <c r="K80" s="26">
+        <v>0</v>
+      </c>
+      <c r="L80" s="26">
+        <v>0</v>
+      </c>
+      <c r="M80" s="26">
+        <v>0</v>
+      </c>
+      <c r="N80" s="26">
+        <v>0</v>
       </c>
       <c r="O80" s="7">
         <v>706053</v>
@@ -7108,7 +7171,7 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="17">
         <v>12864.6</v>
@@ -7176,7 +7239,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="17">
         <v>11678.2</v>
